--- a/movies.xlsx
+++ b/movies.xlsx
@@ -1,47 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Advitiya\Downloads\MBS-CS3365-main\MBS-CS3365-main\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3E95D4-399A-4E88-8E6B-FAD8C4F24427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Movie Name</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Synopsis</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,23 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{42FB8BE2-A17C-4E87-AB12-DBA7F8BB58E4}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -412,40 +396,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Movie Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Poster</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Rating</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Synopsis</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Dune</v>
+      </c>
+      <c r="B2" t="str">
+        <v>/posters/da82823364bbc2b3aace436932cf40a3</v>
+      </c>
+      <c r="C2" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Dune</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Now Showing</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Batman</v>
+      </c>
+      <c r="B3" t="str">
+        <v>/posters/bc3cecd619dccb6d2ccc44234d16ffc5</v>
+      </c>
+      <c r="C3" t="str">
         <v>4</v>
       </c>
+      <c r="D3" t="str">
+        <v>Batman Kills Joker</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Upcoming</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Bride</v>
+      </c>
+      <c r="B4" t="str">
+        <v>/posters/efa759ccf2ba7e0a6c4b2ece593cb77f</v>
+      </c>
+      <c r="C4" t="str">
+        <v>4.5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>The Bride! is an upcoming American musical monster film written, directed, and produced by Maggie Gyllenhaal, and starring Jessie Buckley, Christian Bale, Penélope Cruz, Peter Sarsgaard, and Annette Bening</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Now Showing</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Harry Potter</v>
+      </c>
+      <c r="B5" t="str">
+        <v>/posters/630d136e413954ae55148caeab8a406f</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Adaptation of the first of J.K. Rowling's popular children's novels about Harry Potter, a boy who learns on his eleventh birthday that he is the orphaned son of two powerful wizards and possesses unique magical powers of his own. He is summoned from his life as an unwanted child to become a student at Hogwarts, an English boarding school for wizards. There, he meets several friends who become his closest allies and help him discover the truth about his parents' mysterious deaths.</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Upcoming</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Minecraft</v>
+      </c>
+      <c r="B6" t="str">
+        <v>/posters/08e11e54d0fcf5e3255f43348eb81321</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>A mysterious portal pulls four misfits into the Overworld, a bizarre, cubic wonderland that thrives on imagination. To get back home, they'll have to master the terrain while embarking on a magical quest with an unexpected crafter named Steve.</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Upcoming</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>